--- a/biology/Botanique/Russule_à_pied_court/Russule_à_pied_court.xlsx
+++ b/biology/Botanique/Russule_à_pied_court/Russule_à_pied_court.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Russule_%C3%A0_pied_court</t>
+          <t>Russule_à_pied_court</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula brevipes
 Russula brevipes, la Russule à pied court, est une espèce de champignons basidiomycètes de la famille des Russulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Russule_%C3%A0_pied_court</t>
+          <t>Russule_à_pied_court</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 décembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 décembre 2023) :
 Russula chloroides var. chloroides
 Russula chloroides var. glutinosa Bon, 1986
 Russula chloroides var. parvispora Romagn., 1967
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Russule_%C3%A0_pied_court</t>
+          <t>Russule_à_pied_court</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Russula chloroides (Krombh.) Bres., 1900[1]. L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus chloroides Krombh., 1843[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : russule à lames glauques[2].
-Russula chloroides a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Russula chloroides (Krombh.) Bres., 1900. L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus chloroides Krombh., 1843.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : russule à lames glauques.
+Russula chloroides a pour synonymes :
 Agaricus chloroides Krombh., 1843
 Galorrheus chloroides (Krombh.) P. Kumm., 1871
 Lactarius chloroides (Krombh.) A. Kawam., 1954
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Russule_%C3%A0_pied_court</t>
+          <t>Russule_à_pied_court</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bresadola, G., Fungi tridentini, vol. 2, 1900, p. 83-118</t>
         </is>
